--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_13-23</v>
+        <v>2020-12-03_16-38</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>169</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_16-38</v>
+        <v>2020-12-04_11-56</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>169</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-04_11-56</v>
+        <v>2021-01-11_16-19</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>169</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>calculate</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
   <si>
     <t>patient_name</t>
@@ -1166,7 +1172,7 @@
     <col customWidth="1" min="23" max="23" width="30.0"/>
     <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
     <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.86"/>
+    <col customWidth="1" min="31" max="37" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1274,6 +1280,7 @@
       </c>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1326,6 +1333,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1372,6 +1380,7 @@
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -1416,6 +1425,7 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -1460,6 +1470,7 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1508,6 +1519,7 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -1552,6 +1564,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -1596,6 +1609,7 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -1640,6 +1654,7 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1684,6 +1699,7 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -1728,6 +1744,7 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -1772,6 +1789,7 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -1816,6 +1834,7 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -1860,6 +1879,7 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -1904,6 +1924,7 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -1948,6 +1969,7 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -1988,6 +2010,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
@@ -2028,6 +2051,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -2068,6 +2092,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
@@ -2108,6 +2133,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -2148,23 +2174,24 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -2194,122 +2221,126 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
+      <c r="A23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
@@ -2337,58 +2368,98 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="U29" s="19"/>
@@ -2396,13 +2467,17 @@
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="U30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="U31" s="19"/>
@@ -2410,40 +2485,42 @@
       <c r="AH31" s="9"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="K32" s="19"/>
       <c r="U32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="K33" s="19"/>
+      <c r="U33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="U34" s="19"/>
       <c r="AF34" s="19"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="K35" s="19"/>
       <c r="U35" s="19"/>
       <c r="AF35" s="19"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="19"/>
@@ -2454,6 +2531,7 @@
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
       <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="19"/>
@@ -2464,6 +2542,7 @@
       <c r="AH37" s="21"/>
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="19"/>
@@ -2474,13 +2553,18 @@
       <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
       <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="U39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AH39" s="21"/>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="U40" s="19"/>
@@ -2488,6 +2572,7 @@
       <c r="AH40" s="21"/>
       <c r="AI40" s="21"/>
       <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="U41" s="19"/>
@@ -2495,6 +2580,7 @@
       <c r="AH41" s="21"/>
       <c r="AI41" s="21"/>
       <c r="AJ41" s="21"/>
+      <c r="AK41" s="21"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="U42" s="19"/>
@@ -2502,33 +2588,33 @@
       <c r="AH42" s="21"/>
       <c r="AI42" s="21"/>
       <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
+      <c r="U43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AH43" s="21"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
       <c r="AH44" s="22"/>
       <c r="AI44" s="22"/>
       <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="19"/>
@@ -2537,10 +2623,10 @@
       <c r="D46" s="19"/>
       <c r="J46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="AF46" s="19"/>
       <c r="AH46" s="23"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="19"/>
@@ -2549,27 +2635,24 @@
       <c r="D47" s="19"/>
       <c r="J47" s="19"/>
       <c r="L47" s="19"/>
-      <c r="W47" s="19"/>
+      <c r="AF47" s="19"/>
       <c r="AH47" s="23"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="W48" s="19"/>
       <c r="AH48" s="23"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="19"/>
@@ -2587,6 +2670,7 @@
       <c r="AH49" s="23"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="19"/>
@@ -2604,6 +2688,7 @@
       <c r="AH50" s="23"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="19"/>
@@ -2611,12 +2696,17 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
-      <c r="W51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
       <c r="AH51" s="23"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="19"/>
@@ -2626,11 +2716,11 @@
       <c r="E52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
       <c r="W52" s="19"/>
       <c r="AH52" s="23"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="19"/>
@@ -2640,11 +2730,12 @@
       <c r="E53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
       <c r="W53" s="19"/>
-      <c r="AF53" s="19"/>
       <c r="AH53" s="23"/>
       <c r="AI53" s="23"/>
       <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="19"/>
@@ -2654,12 +2745,12 @@
       <c r="E54" s="19"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="AF54" s="19"/>
       <c r="AH54" s="23"/>
       <c r="AI54" s="23"/>
       <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="19"/>
@@ -2675,83 +2766,96 @@
       <c r="AH55" s="23"/>
       <c r="AI55" s="23"/>
       <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
       <c r="AH56" s="23"/>
       <c r="AI56" s="23"/>
       <c r="AJ56" s="23"/>
+      <c r="AK56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="K57" s="19"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="20"/>
-      <c r="AJ57" s="20"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="23"/>
+      <c r="AJ57" s="23"/>
+      <c r="AK57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="K58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
       <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="K59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
       <c r="AH59" s="20"/>
       <c r="AI59" s="20"/>
       <c r="AJ59" s="20"/>
+      <c r="AK59" s="20"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AH60" s="23"/>
-      <c r="AI60" s="23"/>
-      <c r="AJ60" s="23"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="J61" s="19"/>
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AH61" s="23"/>
       <c r="AI61" s="23"/>
       <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AH62" s="23"/>
       <c r="AI62" s="23"/>
       <c r="AJ62" s="23"/>
+      <c r="AK62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="19"/>
@@ -2762,6 +2866,7 @@
       <c r="AH63" s="23"/>
       <c r="AI63" s="23"/>
       <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="19"/>
@@ -2769,9 +2874,10 @@
       <c r="C64" s="19"/>
       <c r="K64" s="19"/>
       <c r="AF64" s="19"/>
-      <c r="AH64" s="20"/>
-      <c r="AI64" s="20"/>
-      <c r="AJ64" s="20"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="19"/>
@@ -2779,30 +2885,33 @@
       <c r="C65" s="19"/>
       <c r="K65" s="19"/>
       <c r="AF65" s="19"/>
-      <c r="AH65" s="23"/>
-      <c r="AI65" s="23"/>
-      <c r="AJ65" s="23"/>
+      <c r="AH65" s="20"/>
+      <c r="AI65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="20"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="K66" s="19"/>
-      <c r="W66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AH66" s="23"/>
       <c r="AI66" s="23"/>
       <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="K67" s="19"/>
+      <c r="W67" s="19"/>
       <c r="AF67" s="19"/>
-      <c r="AH67" s="20"/>
-      <c r="AI67" s="20"/>
-      <c r="AJ67" s="20"/>
+      <c r="AH67" s="23"/>
+      <c r="AI67" s="23"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="23"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="19"/>
@@ -2813,25 +2922,28 @@
       <c r="AH68" s="20"/>
       <c r="AI68" s="20"/>
       <c r="AJ68" s="20"/>
+      <c r="AK68" s="20"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="U69" s="19"/>
+      <c r="K69" s="19"/>
       <c r="AF69" s="19"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="9"/>
-      <c r="AJ69" s="9"/>
+      <c r="AH69" s="20"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="U70" s="19"/>
       <c r="AF70" s="19"/>
-      <c r="AH70" s="20"/>
-      <c r="AI70" s="20"/>
-      <c r="AJ70" s="20"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="19"/>
@@ -2842,6 +2954,7 @@
       <c r="AH71" s="20"/>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="20"/>
+      <c r="AK71" s="20"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="19"/>
@@ -2852,117 +2965,99 @@
       <c r="AH72" s="20"/>
       <c r="AI72" s="20"/>
       <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
+      <c r="U73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="20"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="K74" s="19"/>
-      <c r="AF74" s="19"/>
+      <c r="L74" s="19"/>
       <c r="AH74" s="24"/>
       <c r="AI74" s="24"/>
       <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="K75" s="19"/>
-      <c r="W75" s="19"/>
+      <c r="AF75" s="19"/>
       <c r="AH75" s="24"/>
       <c r="AI75" s="24"/>
       <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="K76" s="19"/>
-      <c r="AF76" s="19"/>
+      <c r="W76" s="19"/>
       <c r="AH76" s="24"/>
       <c r="AI76" s="24"/>
       <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="K77" s="19"/>
+      <c r="AF77" s="19"/>
       <c r="AH77" s="24"/>
       <c r="AI77" s="24"/>
       <c r="AJ77" s="24"/>
+      <c r="AK77" s="24"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
+      <c r="K78" s="19"/>
       <c r="AH78" s="24"/>
       <c r="AI78" s="24"/>
       <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="AH79" s="25"/>
-      <c r="AI79" s="25"/>
-      <c r="AJ79" s="25"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
+      <c r="AK79" s="24"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
       <c r="AH80" s="25"/>
       <c r="AI80" s="25"/>
       <c r="AJ80" s="25"/>
+      <c r="AK80" s="25"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="26"/>
-      <c r="AI81" s="26"/>
-      <c r="AJ81" s="26"/>
+      <c r="AH81" s="25"/>
+      <c r="AI81" s="25"/>
+      <c r="AJ81" s="25"/>
+      <c r="AK81" s="25"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="19"/>
@@ -3001,6 +3096,7 @@
       <c r="AH82" s="26"/>
       <c r="AI82" s="26"/>
       <c r="AJ82" s="26"/>
+      <c r="AK82" s="26"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="19"/>
@@ -3039,6 +3135,7 @@
       <c r="AH83" s="26"/>
       <c r="AI83" s="26"/>
       <c r="AJ83" s="26"/>
+      <c r="AK83" s="26"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="19"/>
@@ -3077,6 +3174,7 @@
       <c r="AH84" s="26"/>
       <c r="AI84" s="26"/>
       <c r="AJ84" s="26"/>
+      <c r="AK84" s="26"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="19"/>
@@ -3115,6 +3213,7 @@
       <c r="AH85" s="26"/>
       <c r="AI85" s="26"/>
       <c r="AJ85" s="26"/>
+      <c r="AK85" s="26"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="19"/>
@@ -3149,8 +3248,14 @@
       <c r="AD86" s="19"/>
       <c r="AE86" s="19"/>
       <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="26"/>
+      <c r="AI86" s="26"/>
+      <c r="AJ86" s="26"/>
+      <c r="AK86" s="26"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
@@ -3182,13 +3287,8 @@
       <c r="AD87" s="19"/>
       <c r="AE87" s="19"/>
       <c r="AF87" s="19"/>
-      <c r="AG87" s="19"/>
-      <c r="AH87" s="26"/>
-      <c r="AI87" s="26"/>
-      <c r="AJ87" s="26"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -3220,6 +3320,11 @@
       <c r="AD88" s="19"/>
       <c r="AE88" s="19"/>
       <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="26"/>
+      <c r="AI88" s="26"/>
+      <c r="AJ88" s="26"/>
+      <c r="AK88" s="26"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="19"/>
@@ -3288,10 +3393,6 @@
       <c r="AD90" s="19"/>
       <c r="AE90" s="19"/>
       <c r="AF90" s="19"/>
-      <c r="AG90" s="19"/>
-      <c r="AH90" s="26"/>
-      <c r="AI90" s="26"/>
-      <c r="AJ90" s="26"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="19"/>
@@ -3326,8 +3427,14 @@
       <c r="AD91" s="19"/>
       <c r="AE91" s="19"/>
       <c r="AF91" s="19"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="26"/>
+      <c r="AI91" s="26"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="26"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
@@ -3359,13 +3466,8 @@
       <c r="AD92" s="19"/>
       <c r="AE92" s="19"/>
       <c r="AF92" s="19"/>
-      <c r="AG92" s="19"/>
-      <c r="AH92" s="26"/>
-      <c r="AI92" s="26"/>
-      <c r="AJ92" s="26"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
@@ -3401,6 +3503,7 @@
       <c r="AH93" s="26"/>
       <c r="AI93" s="26"/>
       <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="19"/>
@@ -3439,6 +3542,7 @@
       <c r="AH94" s="26"/>
       <c r="AI94" s="26"/>
       <c r="AJ94" s="26"/>
+      <c r="AK94" s="26"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="19"/>
@@ -3477,6 +3581,7 @@
       <c r="AH95" s="26"/>
       <c r="AI95" s="26"/>
       <c r="AJ95" s="26"/>
+      <c r="AK95" s="26"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="19"/>
@@ -3515,6 +3620,7 @@
       <c r="AH96" s="26"/>
       <c r="AI96" s="26"/>
       <c r="AJ96" s="26"/>
+      <c r="AK96" s="26"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="19"/>
@@ -3553,6 +3659,7 @@
       <c r="AH97" s="26"/>
       <c r="AI97" s="26"/>
       <c r="AJ97" s="26"/>
+      <c r="AK97" s="26"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="19"/>
@@ -3591,6 +3698,7 @@
       <c r="AH98" s="26"/>
       <c r="AI98" s="26"/>
       <c r="AJ98" s="26"/>
+      <c r="AK98" s="26"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="19"/>
@@ -3629,6 +3737,7 @@
       <c r="AH99" s="26"/>
       <c r="AI99" s="26"/>
       <c r="AJ99" s="26"/>
+      <c r="AK99" s="26"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="19"/>
@@ -3667,6 +3776,7 @@
       <c r="AH100" s="26"/>
       <c r="AI100" s="26"/>
       <c r="AJ100" s="26"/>
+      <c r="AK100" s="26"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="19"/>
@@ -3705,6 +3815,7 @@
       <c r="AH101" s="26"/>
       <c r="AI101" s="26"/>
       <c r="AJ101" s="26"/>
+      <c r="AK101" s="26"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="19"/>
@@ -3743,6 +3854,7 @@
       <c r="AH102" s="26"/>
       <c r="AI102" s="26"/>
       <c r="AJ102" s="26"/>
+      <c r="AK102" s="26"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="19"/>
@@ -3781,6 +3893,7 @@
       <c r="AH103" s="26"/>
       <c r="AI103" s="26"/>
       <c r="AJ103" s="26"/>
+      <c r="AK103" s="26"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="19"/>
@@ -3819,6 +3932,7 @@
       <c r="AH104" s="26"/>
       <c r="AI104" s="26"/>
       <c r="AJ104" s="26"/>
+      <c r="AK104" s="26"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="19"/>
@@ -3857,16 +3971,46 @@
       <c r="AH105" s="26"/>
       <c r="AI105" s="26"/>
       <c r="AJ105" s="26"/>
+      <c r="AK105" s="26"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
       <c r="K106" s="19"/>
-      <c r="AH106" s="20"/>
-      <c r="AI106" s="20"/>
-      <c r="AJ106" s="20"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="19"/>
+      <c r="Y106" s="19"/>
+      <c r="Z106" s="19"/>
+      <c r="AA106" s="19"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="19"/>
+      <c r="AD106" s="19"/>
+      <c r="AE106" s="19"/>
+      <c r="AF106" s="19"/>
+      <c r="AG106" s="19"/>
+      <c r="AH106" s="26"/>
+      <c r="AI106" s="26"/>
+      <c r="AJ106" s="26"/>
+      <c r="AK106" s="26"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="19"/>
@@ -3877,59 +4021,35 @@
       <c r="AH107" s="20"/>
       <c r="AI107" s="20"/>
       <c r="AJ107" s="20"/>
+      <c r="AK107" s="20"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="AH108" s="25"/>
-      <c r="AI108" s="25"/>
-      <c r="AJ108" s="25"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="AH108" s="20"/>
+      <c r="AI108" s="20"/>
+      <c r="AJ108" s="20"/>
+      <c r="AK108" s="20"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="K109" s="19"/>
       <c r="AH109" s="25"/>
       <c r="AI109" s="25"/>
       <c r="AJ109" s="25"/>
+      <c r="AK109" s="25"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
       <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="19"/>
-      <c r="V110" s="19"/>
-      <c r="W110" s="19"/>
-      <c r="X110" s="19"/>
-      <c r="Y110" s="19"/>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="19"/>
-      <c r="AB110" s="19"/>
-      <c r="AC110" s="19"/>
-      <c r="AD110" s="19"/>
-      <c r="AE110" s="19"/>
-      <c r="AF110" s="19"/>
-      <c r="AG110" s="19"/>
-      <c r="AH110" s="26"/>
-      <c r="AI110" s="26"/>
-      <c r="AJ110" s="26"/>
+      <c r="AH110" s="25"/>
+      <c r="AI110" s="25"/>
+      <c r="AJ110" s="25"/>
+      <c r="AK110" s="25"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="19"/>
@@ -3968,6 +4088,7 @@
       <c r="AH111" s="26"/>
       <c r="AI111" s="26"/>
       <c r="AJ111" s="26"/>
+      <c r="AK111" s="26"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="19"/>
@@ -4006,6 +4127,7 @@
       <c r="AH112" s="26"/>
       <c r="AI112" s="26"/>
       <c r="AJ112" s="26"/>
+      <c r="AK112" s="26"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="19"/>
@@ -4044,6 +4166,7 @@
       <c r="AH113" s="26"/>
       <c r="AI113" s="26"/>
       <c r="AJ113" s="26"/>
+      <c r="AK113" s="26"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="19"/>
@@ -4082,6 +4205,7 @@
       <c r="AH114" s="26"/>
       <c r="AI114" s="26"/>
       <c r="AJ114" s="26"/>
+      <c r="AK114" s="26"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="19"/>
@@ -4120,6 +4244,7 @@
       <c r="AH115" s="26"/>
       <c r="AI115" s="26"/>
       <c r="AJ115" s="26"/>
+      <c r="AK115" s="26"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="19"/>
@@ -4158,6 +4283,7 @@
       <c r="AH116" s="26"/>
       <c r="AI116" s="26"/>
       <c r="AJ116" s="26"/>
+      <c r="AK116" s="26"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="19"/>
@@ -4196,6 +4322,7 @@
       <c r="AH117" s="26"/>
       <c r="AI117" s="26"/>
       <c r="AJ117" s="26"/>
+      <c r="AK117" s="26"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="19"/>
@@ -4234,6 +4361,7 @@
       <c r="AH118" s="26"/>
       <c r="AI118" s="26"/>
       <c r="AJ118" s="26"/>
+      <c r="AK118" s="26"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="19"/>
@@ -4272,9 +4400,11 @@
       <c r="AH119" s="26"/>
       <c r="AI119" s="26"/>
       <c r="AJ119" s="26"/>
+      <c r="AK119" s="26"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
@@ -4309,155 +4439,206 @@
       <c r="AH120" s="26"/>
       <c r="AI120" s="26"/>
       <c r="AJ120" s="26"/>
+      <c r="AK120" s="26"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
       <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
       <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
       <c r="K121" s="19"/>
-      <c r="AH121" s="25"/>
-      <c r="AI121" s="25"/>
-      <c r="AJ121" s="25"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="19"/>
+      <c r="V121" s="19"/>
+      <c r="W121" s="19"/>
+      <c r="X121" s="19"/>
+      <c r="Y121" s="19"/>
+      <c r="Z121" s="19"/>
+      <c r="AA121" s="19"/>
+      <c r="AB121" s="19"/>
+      <c r="AC121" s="19"/>
+      <c r="AD121" s="19"/>
+      <c r="AE121" s="19"/>
+      <c r="AF121" s="19"/>
+      <c r="AG121" s="19"/>
+      <c r="AH121" s="26"/>
+      <c r="AI121" s="26"/>
+      <c r="AJ121" s="26"/>
+      <c r="AK121" s="26"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="AH122" s="27"/>
-      <c r="AI122" s="27"/>
-      <c r="AJ122" s="27"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="AH122" s="25"/>
+      <c r="AI122" s="25"/>
+      <c r="AJ122" s="25"/>
+      <c r="AK122" s="25"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="19"/>
       <c r="AH123" s="27"/>
       <c r="AI123" s="27"/>
       <c r="AJ123" s="27"/>
+      <c r="AK123" s="27"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
       <c r="C124" s="19"/>
-      <c r="AF124" s="19"/>
       <c r="AH124" s="27"/>
       <c r="AI124" s="27"/>
       <c r="AJ124" s="27"/>
+      <c r="AK124" s="27"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
+      <c r="AF125" s="19"/>
       <c r="AH125" s="27"/>
       <c r="AI125" s="27"/>
       <c r="AJ125" s="27"/>
+      <c r="AK125" s="27"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
       <c r="AH126" s="27"/>
       <c r="AI126" s="27"/>
       <c r="AJ126" s="27"/>
+      <c r="AK126" s="27"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="AH127" s="27"/>
       <c r="AI127" s="27"/>
       <c r="AJ127" s="27"/>
+      <c r="AK127" s="27"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="AH128" s="27"/>
       <c r="AI128" s="27"/>
       <c r="AJ128" s="27"/>
+      <c r="AK128" s="27"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="AH129" s="27"/>
       <c r="AI129" s="27"/>
       <c r="AJ129" s="27"/>
+      <c r="AK129" s="27"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="AH130" s="27"/>
       <c r="AI130" s="27"/>
       <c r="AJ130" s="27"/>
+      <c r="AK130" s="27"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="AH131" s="27"/>
       <c r="AI131" s="27"/>
       <c r="AJ131" s="27"/>
+      <c r="AK131" s="27"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="28"/>
-      <c r="C132" s="19"/>
       <c r="AH132" s="27"/>
       <c r="AI132" s="27"/>
       <c r="AJ132" s="27"/>
+      <c r="AK132" s="27"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="28"/>
+      <c r="C133" s="19"/>
       <c r="AH133" s="27"/>
       <c r="AI133" s="27"/>
       <c r="AJ133" s="27"/>
+      <c r="AK133" s="27"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="AH134" s="27"/>
       <c r="AI134" s="27"/>
       <c r="AJ134" s="27"/>
+      <c r="AK134" s="27"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="AH135" s="27"/>
       <c r="AI135" s="27"/>
       <c r="AJ135" s="27"/>
+      <c r="AK135" s="27"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="AH136" s="27"/>
       <c r="AI136" s="27"/>
       <c r="AJ136" s="27"/>
-    </row>
-    <row r="137" ht="29.25" customHeight="1">
-      <c r="U137" s="28"/>
-      <c r="AF137" s="19"/>
+      <c r="AK136" s="27"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="AH137" s="27"/>
       <c r="AI137" s="27"/>
       <c r="AJ137" s="27"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="K138" s="19"/>
+      <c r="AK137" s="27"/>
+    </row>
+    <row r="138" ht="29.25" customHeight="1">
+      <c r="U138" s="28"/>
       <c r="AF138" s="19"/>
-      <c r="AH138" s="9"/>
-      <c r="AI138" s="9"/>
-      <c r="AJ138" s="9"/>
+      <c r="AH138" s="27"/>
+      <c r="AI138" s="27"/>
+      <c r="AJ138" s="27"/>
+      <c r="AK138" s="27"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
-      <c r="L139" s="19"/>
+      <c r="K139" s="19"/>
       <c r="AF139" s="19"/>
       <c r="AH139" s="9"/>
       <c r="AI139" s="9"/>
       <c r="AJ139" s="9"/>
+      <c r="AK139" s="9"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
       <c r="L140" s="19"/>
       <c r="AF140" s="19"/>
-      <c r="AH140" s="27"/>
-      <c r="AI140" s="27"/>
-      <c r="AJ140" s="27"/>
+      <c r="AH140" s="9"/>
+      <c r="AI140" s="9"/>
+      <c r="AJ140" s="9"/>
+      <c r="AK140" s="9"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="AF141" s="19"/>
       <c r="AH141" s="27"/>
       <c r="AI141" s="27"/>
       <c r="AJ141" s="27"/>
+      <c r="AK141" s="27"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="AH142" s="20"/>
-      <c r="AI142" s="20"/>
-      <c r="AJ142" s="20"/>
+      <c r="AH142" s="27"/>
+      <c r="AI142" s="27"/>
+      <c r="AJ142" s="27"/>
+      <c r="AK142" s="27"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="K143" s="19"/>
       <c r="AH143" s="20"/>
       <c r="AI143" s="20"/>
       <c r="AJ143" s="20"/>
+      <c r="AK143" s="20"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="19"/>
@@ -4465,10 +4646,10 @@
       <c r="C144" s="19"/>
       <c r="E144" s="19"/>
       <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
       <c r="AH144" s="20"/>
       <c r="AI144" s="20"/>
       <c r="AJ144" s="20"/>
+      <c r="AK144" s="20"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="19"/>
@@ -4476,9 +4657,11 @@
       <c r="C145" s="19"/>
       <c r="E145" s="19"/>
       <c r="K145" s="19"/>
-      <c r="AH145" s="23"/>
-      <c r="AI145" s="23"/>
-      <c r="AJ145" s="23"/>
+      <c r="L145" s="19"/>
+      <c r="AH145" s="20"/>
+      <c r="AI145" s="20"/>
+      <c r="AJ145" s="20"/>
+      <c r="AK145" s="20"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="19"/>
@@ -4486,10 +4669,10 @@
       <c r="C146" s="19"/>
       <c r="E146" s="19"/>
       <c r="K146" s="19"/>
-      <c r="AF146" s="19"/>
       <c r="AH146" s="23"/>
       <c r="AI146" s="23"/>
       <c r="AJ146" s="23"/>
+      <c r="AK146" s="23"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="19"/>
@@ -4501,6 +4684,7 @@
       <c r="AH147" s="23"/>
       <c r="AI147" s="23"/>
       <c r="AJ147" s="23"/>
+      <c r="AK147" s="23"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="19"/>
@@ -4508,9 +4692,11 @@
       <c r="C148" s="19"/>
       <c r="E148" s="19"/>
       <c r="K148" s="19"/>
-      <c r="AH148" s="20"/>
-      <c r="AI148" s="20"/>
-      <c r="AJ148" s="20"/>
+      <c r="AF148" s="19"/>
+      <c r="AH148" s="23"/>
+      <c r="AI148" s="23"/>
+      <c r="AJ148" s="23"/>
+      <c r="AK148" s="23"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="19"/>
@@ -4518,10 +4704,10 @@
       <c r="C149" s="19"/>
       <c r="E149" s="19"/>
       <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
       <c r="AH149" s="20"/>
       <c r="AI149" s="20"/>
       <c r="AJ149" s="20"/>
+      <c r="AK149" s="20"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="19"/>
@@ -4529,9 +4715,11 @@
       <c r="C150" s="19"/>
       <c r="E150" s="19"/>
       <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
       <c r="AH150" s="20"/>
       <c r="AI150" s="20"/>
       <c r="AJ150" s="20"/>
+      <c r="AK150" s="20"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="19"/>
@@ -4539,10 +4727,10 @@
       <c r="C151" s="19"/>
       <c r="E151" s="19"/>
       <c r="K151" s="19"/>
-      <c r="AF151" s="19"/>
       <c r="AH151" s="20"/>
       <c r="AI151" s="20"/>
       <c r="AJ151" s="20"/>
+      <c r="AK151" s="20"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="19"/>
@@ -4550,9 +4738,11 @@
       <c r="C152" s="19"/>
       <c r="E152" s="19"/>
       <c r="K152" s="19"/>
+      <c r="AF152" s="19"/>
       <c r="AH152" s="20"/>
       <c r="AI152" s="20"/>
       <c r="AJ152" s="20"/>
+      <c r="AK152" s="20"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="19"/>
@@ -4560,32 +4750,34 @@
       <c r="C153" s="19"/>
       <c r="E153" s="19"/>
       <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
       <c r="AH153" s="20"/>
       <c r="AI153" s="20"/>
       <c r="AJ153" s="20"/>
+      <c r="AK153" s="20"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
       <c r="E154" s="19"/>
-      <c r="J154" s="19"/>
       <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
       <c r="AH154" s="20"/>
       <c r="AI154" s="20"/>
       <c r="AJ154" s="20"/>
+      <c r="AK154" s="20"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
       <c r="E155" s="19"/>
+      <c r="J155" s="19"/>
       <c r="K155" s="19"/>
-      <c r="AF155" s="19"/>
       <c r="AH155" s="20"/>
       <c r="AI155" s="20"/>
       <c r="AJ155" s="20"/>
+      <c r="AK155" s="20"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="19"/>
@@ -4593,9 +4785,11 @@
       <c r="C156" s="19"/>
       <c r="E156" s="19"/>
       <c r="K156" s="19"/>
+      <c r="AF156" s="19"/>
       <c r="AH156" s="20"/>
       <c r="AI156" s="20"/>
       <c r="AJ156" s="20"/>
+      <c r="AK156" s="20"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="19"/>
@@ -4603,10 +4797,10 @@
       <c r="C157" s="19"/>
       <c r="E157" s="19"/>
       <c r="K157" s="19"/>
-      <c r="AF157" s="19"/>
       <c r="AH157" s="20"/>
       <c r="AI157" s="20"/>
       <c r="AJ157" s="20"/>
+      <c r="AK157" s="20"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="19"/>
@@ -4614,9 +4808,11 @@
       <c r="C158" s="19"/>
       <c r="E158" s="19"/>
       <c r="K158" s="19"/>
+      <c r="AF158" s="19"/>
       <c r="AH158" s="20"/>
       <c r="AI158" s="20"/>
       <c r="AJ158" s="20"/>
+      <c r="AK158" s="20"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="19"/>
@@ -4627,6 +4823,7 @@
       <c r="AH159" s="20"/>
       <c r="AI159" s="20"/>
       <c r="AJ159" s="20"/>
+      <c r="AK159" s="20"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="19"/>
@@ -4637,6 +4834,7 @@
       <c r="AH160" s="20"/>
       <c r="AI160" s="20"/>
       <c r="AJ160" s="20"/>
+      <c r="AK160" s="20"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="19"/>
@@ -4647,6 +4845,7 @@
       <c r="AH161" s="20"/>
       <c r="AI161" s="20"/>
       <c r="AJ161" s="20"/>
+      <c r="AK161" s="20"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="19"/>
@@ -4657,6 +4856,7 @@
       <c r="AH162" s="20"/>
       <c r="AI162" s="20"/>
       <c r="AJ162" s="20"/>
+      <c r="AK162" s="20"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="19"/>
@@ -4664,48 +4864,22 @@
       <c r="C163" s="19"/>
       <c r="E163" s="19"/>
       <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="AH163" s="25"/>
-      <c r="AI163" s="25"/>
-      <c r="AJ163" s="25"/>
+      <c r="AH163" s="20"/>
+      <c r="AI163" s="20"/>
+      <c r="AJ163" s="20"/>
+      <c r="AK163" s="20"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
       <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
       <c r="K164" s="19"/>
       <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
-      <c r="R164" s="19"/>
-      <c r="S164" s="19"/>
-      <c r="T164" s="19"/>
-      <c r="U164" s="19"/>
-      <c r="V164" s="19"/>
-      <c r="W164" s="19"/>
-      <c r="X164" s="19"/>
-      <c r="Y164" s="19"/>
-      <c r="Z164" s="19"/>
-      <c r="AA164" s="19"/>
-      <c r="AB164" s="19"/>
-      <c r="AC164" s="19"/>
-      <c r="AD164" s="19"/>
-      <c r="AE164" s="19"/>
-      <c r="AF164" s="19"/>
-      <c r="AG164" s="19"/>
-      <c r="AH164" s="26"/>
-      <c r="AI164" s="26"/>
-      <c r="AJ164" s="26"/>
+      <c r="AH164" s="25"/>
+      <c r="AI164" s="25"/>
+      <c r="AJ164" s="25"/>
+      <c r="AK164" s="25"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="19"/>
@@ -4744,16 +4918,46 @@
       <c r="AH165" s="26"/>
       <c r="AI165" s="26"/>
       <c r="AJ165" s="26"/>
+      <c r="AK165" s="26"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
       <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
       <c r="K166" s="19"/>
-      <c r="AH166" s="25"/>
-      <c r="AI166" s="25"/>
-      <c r="AJ166" s="25"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
+      <c r="AH166" s="26"/>
+      <c r="AI166" s="26"/>
+      <c r="AJ166" s="26"/>
+      <c r="AK166" s="26"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="19"/>
@@ -4761,48 +4965,22 @@
       <c r="C167" s="19"/>
       <c r="E167" s="19"/>
       <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
       <c r="AH167" s="25"/>
       <c r="AI167" s="25"/>
       <c r="AJ167" s="25"/>
+      <c r="AK167" s="25"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
       <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
       <c r="K168" s="19"/>
       <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="19"/>
-      <c r="T168" s="19"/>
-      <c r="U168" s="19"/>
-      <c r="V168" s="19"/>
-      <c r="W168" s="19"/>
-      <c r="X168" s="19"/>
-      <c r="Y168" s="19"/>
-      <c r="Z168" s="19"/>
-      <c r="AA168" s="19"/>
-      <c r="AB168" s="19"/>
-      <c r="AC168" s="19"/>
-      <c r="AD168" s="19"/>
-      <c r="AE168" s="19"/>
-      <c r="AF168" s="19"/>
-      <c r="AG168" s="19"/>
-      <c r="AH168" s="26"/>
-      <c r="AI168" s="26"/>
-      <c r="AJ168" s="26"/>
+      <c r="AH168" s="25"/>
+      <c r="AI168" s="25"/>
+      <c r="AJ168" s="25"/>
+      <c r="AK168" s="25"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="19"/>
@@ -4841,6 +5019,7 @@
       <c r="AH169" s="26"/>
       <c r="AI169" s="26"/>
       <c r="AJ169" s="26"/>
+      <c r="AK169" s="26"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="19"/>
@@ -4879,50 +5058,57 @@
       <c r="AH170" s="26"/>
       <c r="AI170" s="26"/>
       <c r="AJ170" s="26"/>
+      <c r="AK170" s="26"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
       <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
       <c r="K171" s="19"/>
-      <c r="AH171" s="25"/>
-      <c r="AI171" s="25"/>
-      <c r="AJ171" s="25"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="19"/>
+      <c r="T171" s="19"/>
+      <c r="U171" s="19"/>
+      <c r="V171" s="19"/>
+      <c r="W171" s="19"/>
+      <c r="X171" s="19"/>
+      <c r="Y171" s="19"/>
+      <c r="Z171" s="19"/>
+      <c r="AA171" s="19"/>
+      <c r="AB171" s="19"/>
+      <c r="AC171" s="19"/>
+      <c r="AD171" s="19"/>
+      <c r="AE171" s="19"/>
+      <c r="AF171" s="19"/>
+      <c r="AG171" s="19"/>
+      <c r="AH171" s="26"/>
+      <c r="AI171" s="26"/>
+      <c r="AJ171" s="26"/>
+      <c r="AK171" s="26"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
       <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="J172" s="19"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-      <c r="R172" s="19"/>
-      <c r="S172" s="19"/>
-      <c r="T172" s="19"/>
-      <c r="U172" s="19"/>
-      <c r="V172" s="19"/>
-      <c r="W172" s="19"/>
-      <c r="X172" s="19"/>
-      <c r="Y172" s="19"/>
-      <c r="Z172" s="19"/>
-      <c r="AA172" s="19"/>
-      <c r="AB172" s="19"/>
-      <c r="AC172" s="19"/>
-      <c r="AD172" s="19"/>
-      <c r="AE172" s="19"/>
-      <c r="AF172" s="19"/>
-      <c r="AG172" s="19"/>
-      <c r="AH172" s="29"/>
-      <c r="AI172" s="29"/>
-      <c r="AJ172" s="29"/>
+      <c r="AH172" s="25"/>
+      <c r="AI172" s="25"/>
+      <c r="AJ172" s="25"/>
+      <c r="AK172" s="25"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="19"/>
@@ -4930,41 +5116,53 @@
       <c r="C173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="19"/>
+      <c r="U173" s="19"/>
+      <c r="V173" s="19"/>
+      <c r="W173" s="19"/>
+      <c r="X173" s="19"/>
+      <c r="Y173" s="19"/>
+      <c r="Z173" s="19"/>
+      <c r="AA173" s="19"/>
+      <c r="AB173" s="19"/>
+      <c r="AC173" s="19"/>
+      <c r="AD173" s="19"/>
+      <c r="AE173" s="19"/>
       <c r="AF173" s="19"/>
       <c r="AG173" s="19"/>
-      <c r="AH173" s="30"/>
-      <c r="AI173" s="30"/>
-      <c r="AJ173" s="30"/>
+      <c r="AH173" s="29"/>
+      <c r="AI173" s="29"/>
+      <c r="AJ173" s="29"/>
+      <c r="AK173" s="29"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="AF174" s="19"/>
+      <c r="AG174" s="19"/>
       <c r="AH174" s="30"/>
       <c r="AI174" s="30"/>
       <c r="AJ174" s="30"/>
+      <c r="AK174" s="30"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="19"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
-      <c r="R175" s="19"/>
-      <c r="S175" s="19"/>
-      <c r="T175" s="19"/>
-      <c r="U175" s="19"/>
-      <c r="V175" s="19"/>
-      <c r="W175" s="19"/>
-      <c r="X175" s="19"/>
-      <c r="Y175" s="19"/>
-      <c r="AF175" s="19"/>
-      <c r="AG175" s="19"/>
       <c r="AH175" s="30"/>
       <c r="AI175" s="30"/>
       <c r="AJ175" s="30"/>
+      <c r="AK175" s="30"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="19"/>
@@ -4972,75 +5170,91 @@
       <c r="C176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
+      <c r="S176" s="19"/>
+      <c r="T176" s="19"/>
+      <c r="U176" s="19"/>
+      <c r="V176" s="19"/>
+      <c r="W176" s="19"/>
+      <c r="X176" s="19"/>
+      <c r="Y176" s="19"/>
       <c r="AF176" s="19"/>
       <c r="AG176" s="19"/>
       <c r="AH176" s="30"/>
       <c r="AI176" s="30"/>
       <c r="AJ176" s="30"/>
+      <c r="AK176" s="30"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
       <c r="AF177" s="19"/>
       <c r="AG177" s="19"/>
       <c r="AH177" s="30"/>
       <c r="AI177" s="30"/>
       <c r="AJ177" s="30"/>
+      <c r="AK177" s="30"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
       <c r="AF178" s="19"/>
       <c r="AG178" s="19"/>
       <c r="AH178" s="30"/>
       <c r="AI178" s="30"/>
       <c r="AJ178" s="30"/>
+      <c r="AK178" s="30"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="2"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
       <c r="AF179" s="19"/>
       <c r="AG179" s="19"/>
       <c r="AH179" s="30"/>
       <c r="AI179" s="30"/>
       <c r="AJ179" s="30"/>
+      <c r="AK179" s="30"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="19"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="2"/>
       <c r="AF180" s="19"/>
       <c r="AG180" s="19"/>
       <c r="AH180" s="30"/>
       <c r="AI180" s="30"/>
       <c r="AJ180" s="30"/>
+      <c r="AK180" s="30"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="19"/>
@@ -5055,39 +5269,42 @@
       <c r="AH181" s="30"/>
       <c r="AI181" s="30"/>
       <c r="AJ181" s="30"/>
+      <c r="AK181" s="30"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
       <c r="AF182" s="19"/>
       <c r="AG182" s="19"/>
       <c r="AH182" s="30"/>
       <c r="AI182" s="30"/>
       <c r="AJ182" s="30"/>
+      <c r="AK182" s="30"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="19"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
       <c r="AF183" s="19"/>
       <c r="AG183" s="19"/>
       <c r="AH183" s="30"/>
       <c r="AI183" s="30"/>
       <c r="AJ183" s="30"/>
+      <c r="AK183" s="30"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="19"/>
@@ -5102,6 +5319,7 @@
       <c r="AH184" s="30"/>
       <c r="AI184" s="30"/>
       <c r="AJ184" s="30"/>
+      <c r="AK184" s="30"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="19"/>
@@ -5116,6 +5334,7 @@
       <c r="AH185" s="30"/>
       <c r="AI185" s="30"/>
       <c r="AJ185" s="30"/>
+      <c r="AK185" s="30"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="19"/>
@@ -5130,6 +5349,7 @@
       <c r="AH186" s="30"/>
       <c r="AI186" s="30"/>
       <c r="AJ186" s="30"/>
+      <c r="AK186" s="30"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="19"/>
@@ -5144,6 +5364,7 @@
       <c r="AH187" s="30"/>
       <c r="AI187" s="30"/>
       <c r="AJ187" s="30"/>
+      <c r="AK187" s="30"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="19"/>
@@ -5158,6 +5379,7 @@
       <c r="AH188" s="30"/>
       <c r="AI188" s="30"/>
       <c r="AJ188" s="30"/>
+      <c r="AK188" s="30"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="19"/>
@@ -5172,6 +5394,7 @@
       <c r="AH189" s="30"/>
       <c r="AI189" s="30"/>
       <c r="AJ189" s="30"/>
+      <c r="AK189" s="30"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="19"/>
@@ -5186,6 +5409,7 @@
       <c r="AH190" s="30"/>
       <c r="AI190" s="30"/>
       <c r="AJ190" s="30"/>
+      <c r="AK190" s="30"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="19"/>
@@ -5200,6 +5424,7 @@
       <c r="AH191" s="30"/>
       <c r="AI191" s="30"/>
       <c r="AJ191" s="30"/>
+      <c r="AK191" s="30"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="19"/>
@@ -5211,42 +5436,45 @@
       <c r="L192" s="19"/>
       <c r="AF192" s="19"/>
       <c r="AG192" s="19"/>
-      <c r="AH192" s="31"/>
-      <c r="AI192" s="31"/>
-      <c r="AJ192" s="31"/>
+      <c r="AH192" s="30"/>
+      <c r="AI192" s="30"/>
+      <c r="AJ192" s="30"/>
+      <c r="AK192" s="30"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
       <c r="AF193" s="19"/>
       <c r="AG193" s="19"/>
-      <c r="AH193" s="30"/>
-      <c r="AI193" s="30"/>
-      <c r="AJ193" s="30"/>
+      <c r="AH193" s="31"/>
+      <c r="AI193" s="31"/>
+      <c r="AJ193" s="31"/>
+      <c r="AK193" s="31"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="19"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
       <c r="AF194" s="19"/>
       <c r="AG194" s="19"/>
       <c r="AH194" s="30"/>
       <c r="AI194" s="30"/>
       <c r="AJ194" s="30"/>
+      <c r="AK194" s="30"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="19"/>
@@ -5261,6 +5489,7 @@
       <c r="AH195" s="30"/>
       <c r="AI195" s="30"/>
       <c r="AJ195" s="30"/>
+      <c r="AK195" s="30"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="19"/>
@@ -5275,6 +5504,7 @@
       <c r="AH196" s="30"/>
       <c r="AI196" s="30"/>
       <c r="AJ196" s="30"/>
+      <c r="AK196" s="30"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="19"/>
@@ -5289,6 +5519,7 @@
       <c r="AH197" s="30"/>
       <c r="AI197" s="30"/>
       <c r="AJ197" s="30"/>
+      <c r="AK197" s="30"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="19"/>
@@ -5303,6 +5534,7 @@
       <c r="AH198" s="30"/>
       <c r="AI198" s="30"/>
       <c r="AJ198" s="30"/>
+      <c r="AK198" s="30"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="19"/>
@@ -5317,34 +5549,37 @@
       <c r="AH199" s="30"/>
       <c r="AI199" s="30"/>
       <c r="AJ199" s="30"/>
+      <c r="AK199" s="30"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="19"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" s="19"/>
-      <c r="K200" s="28"/>
+      <c r="K200" s="19"/>
       <c r="L200" s="19"/>
       <c r="AF200" s="19"/>
       <c r="AG200" s="19"/>
       <c r="AH200" s="30"/>
       <c r="AI200" s="30"/>
       <c r="AJ200" s="30"/>
+      <c r="AK200" s="30"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="19"/>
-      <c r="B201" s="19"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="19"/>
       <c r="E201" s="19"/>
       <c r="F201" s="19"/>
-      <c r="K201" s="19"/>
+      <c r="K201" s="28"/>
       <c r="L201" s="19"/>
       <c r="AF201" s="19"/>
       <c r="AG201" s="19"/>
       <c r="AH201" s="30"/>
       <c r="AI201" s="30"/>
       <c r="AJ201" s="30"/>
+      <c r="AK201" s="30"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="19"/>
@@ -5359,6 +5594,7 @@
       <c r="AH202" s="30"/>
       <c r="AI202" s="30"/>
       <c r="AJ202" s="30"/>
+      <c r="AK202" s="30"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="19"/>
@@ -5373,6 +5609,7 @@
       <c r="AH203" s="30"/>
       <c r="AI203" s="30"/>
       <c r="AJ203" s="30"/>
+      <c r="AK203" s="30"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="19"/>
@@ -5387,6 +5624,7 @@
       <c r="AH204" s="30"/>
       <c r="AI204" s="30"/>
       <c r="AJ204" s="30"/>
+      <c r="AK204" s="30"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="19"/>
@@ -5394,45 +5632,48 @@
       <c r="C205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" s="19"/>
+      <c r="K205" s="19"/>
       <c r="L205" s="19"/>
       <c r="AF205" s="19"/>
       <c r="AG205" s="19"/>
       <c r="AH205" s="30"/>
       <c r="AI205" s="30"/>
       <c r="AJ205" s="30"/>
+      <c r="AK205" s="30"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="2"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="L206" s="19"/>
       <c r="AF206" s="19"/>
       <c r="AG206" s="19"/>
       <c r="AH206" s="30"/>
       <c r="AI206" s="30"/>
       <c r="AJ206" s="30"/>
+      <c r="AK206" s="30"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="2"/>
       <c r="AF207" s="19"/>
       <c r="AG207" s="19"/>
       <c r="AH207" s="30"/>
       <c r="AI207" s="30"/>
       <c r="AJ207" s="30"/>
+      <c r="AK207" s="30"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="19"/>
@@ -5447,6 +5688,7 @@
       <c r="AH208" s="30"/>
       <c r="AI208" s="30"/>
       <c r="AJ208" s="30"/>
+      <c r="AK208" s="30"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="19"/>
@@ -5461,6 +5703,7 @@
       <c r="AH209" s="30"/>
       <c r="AI209" s="30"/>
       <c r="AJ209" s="30"/>
+      <c r="AK209" s="30"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="19"/>
@@ -5475,6 +5718,7 @@
       <c r="AH210" s="30"/>
       <c r="AI210" s="30"/>
       <c r="AJ210" s="30"/>
+      <c r="AK210" s="30"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="19"/>
@@ -5489,6 +5733,7 @@
       <c r="AH211" s="30"/>
       <c r="AI211" s="30"/>
       <c r="AJ211" s="30"/>
+      <c r="AK211" s="30"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="19"/>
@@ -5503,6 +5748,7 @@
       <c r="AH212" s="30"/>
       <c r="AI212" s="30"/>
       <c r="AJ212" s="30"/>
+      <c r="AK212" s="30"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="19"/>
@@ -5517,6 +5763,7 @@
       <c r="AH213" s="30"/>
       <c r="AI213" s="30"/>
       <c r="AJ213" s="30"/>
+      <c r="AK213" s="30"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="19"/>
@@ -5531,6 +5778,7 @@
       <c r="AH214" s="30"/>
       <c r="AI214" s="30"/>
       <c r="AJ214" s="30"/>
+      <c r="AK214" s="30"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="19"/>
@@ -5545,6 +5793,7 @@
       <c r="AH215" s="30"/>
       <c r="AI215" s="30"/>
       <c r="AJ215" s="30"/>
+      <c r="AK215" s="30"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="19"/>
@@ -5559,6 +5808,7 @@
       <c r="AH216" s="30"/>
       <c r="AI216" s="30"/>
       <c r="AJ216" s="30"/>
+      <c r="AK216" s="30"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="19"/>
@@ -5573,6 +5823,7 @@
       <c r="AH217" s="30"/>
       <c r="AI217" s="30"/>
       <c r="AJ217" s="30"/>
+      <c r="AK217" s="30"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="19"/>
@@ -5580,45 +5831,48 @@
       <c r="C218" s="19"/>
       <c r="E218" s="19"/>
       <c r="F218" s="19"/>
+      <c r="K218" s="19"/>
       <c r="L218" s="19"/>
       <c r="AF218" s="19"/>
       <c r="AG218" s="19"/>
       <c r="AH218" s="30"/>
       <c r="AI218" s="30"/>
       <c r="AJ218" s="30"/>
+      <c r="AK218" s="30"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="2"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="2"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="L219" s="19"/>
       <c r="AF219" s="19"/>
       <c r="AG219" s="19"/>
       <c r="AH219" s="30"/>
       <c r="AI219" s="30"/>
       <c r="AJ219" s="30"/>
+      <c r="AK219" s="30"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="2"/>
       <c r="AF220" s="19"/>
       <c r="AG220" s="19"/>
       <c r="AH220" s="30"/>
       <c r="AI220" s="30"/>
       <c r="AJ220" s="30"/>
+      <c r="AK220" s="30"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="19"/>
@@ -5633,6 +5887,7 @@
       <c r="AH221" s="30"/>
       <c r="AI221" s="30"/>
       <c r="AJ221" s="30"/>
+      <c r="AK221" s="30"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="19"/>
@@ -5647,6 +5902,7 @@
       <c r="AH222" s="30"/>
       <c r="AI222" s="30"/>
       <c r="AJ222" s="30"/>
+      <c r="AK222" s="30"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="19"/>
@@ -5661,6 +5917,7 @@
       <c r="AH223" s="30"/>
       <c r="AI223" s="30"/>
       <c r="AJ223" s="30"/>
+      <c r="AK223" s="30"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="19"/>
@@ -5675,22 +5932,24 @@
       <c r="AH224" s="30"/>
       <c r="AI224" s="30"/>
       <c r="AJ224" s="30"/>
-    </row>
-    <row r="225">
+      <c r="AK224" s="30"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="19"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" s="19"/>
+      <c r="K225" s="19"/>
       <c r="L225" s="19"/>
-      <c r="U225" s="19"/>
       <c r="AF225" s="19"/>
       <c r="AG225" s="19"/>
       <c r="AH225" s="30"/>
       <c r="AI225" s="30"/>
       <c r="AJ225" s="30"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
+      <c r="AK225" s="30"/>
+    </row>
+    <row r="226">
       <c r="A226" s="19"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -5703,6 +5962,7 @@
       <c r="AH226" s="30"/>
       <c r="AI226" s="30"/>
       <c r="AJ226" s="30"/>
+      <c r="AK226" s="30"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="19"/>
@@ -5717,25 +5977,33 @@
       <c r="AH227" s="30"/>
       <c r="AI227" s="30"/>
       <c r="AJ227" s="30"/>
+      <c r="AK227" s="30"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
       <c r="L228" s="19"/>
       <c r="U228" s="19"/>
-      <c r="AH228" s="21"/>
-      <c r="AI228" s="21"/>
-      <c r="AJ228" s="21"/>
+      <c r="AF228" s="19"/>
+      <c r="AG228" s="19"/>
+      <c r="AH228" s="30"/>
+      <c r="AI228" s="30"/>
+      <c r="AJ228" s="30"/>
+      <c r="AK228" s="30"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
       <c r="L229" s="19"/>
       <c r="U229" s="19"/>
       <c r="AH229" s="21"/>
       <c r="AI229" s="21"/>
       <c r="AJ229" s="21"/>
+      <c r="AK229" s="21"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="19"/>
@@ -5745,6 +6013,7 @@
       <c r="AH230" s="21"/>
       <c r="AI230" s="21"/>
       <c r="AJ230" s="21"/>
+      <c r="AK230" s="21"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="19"/>
@@ -5754,6 +6023,7 @@
       <c r="AH231" s="21"/>
       <c r="AI231" s="21"/>
       <c r="AJ231" s="21"/>
+      <c r="AK231" s="21"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="19"/>
@@ -5763,59 +6033,61 @@
       <c r="AH232" s="21"/>
       <c r="AI232" s="21"/>
       <c r="AJ232" s="21"/>
+      <c r="AK232" s="21"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="19"/>
       <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="K233" s="19"/>
       <c r="L233" s="19"/>
-      <c r="AH233" s="22"/>
-      <c r="AI233" s="22"/>
-      <c r="AJ233" s="22"/>
+      <c r="U233" s="19"/>
+      <c r="AH233" s="21"/>
+      <c r="AI233" s="21"/>
+      <c r="AJ233" s="21"/>
+      <c r="AK233" s="21"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="19"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
       <c r="E234" s="19"/>
-      <c r="F234" s="19"/>
-      <c r="AF234" s="19"/>
-      <c r="AG234" s="19"/>
-      <c r="AH234" s="30"/>
-      <c r="AI234" s="30"/>
-      <c r="AJ234" s="30"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="19"/>
+      <c r="AH234" s="22"/>
+      <c r="AI234" s="22"/>
+      <c r="AJ234" s="22"/>
+      <c r="AK234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="19"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="AF235" s="19"/>
+      <c r="AG235" s="19"/>
       <c r="AH235" s="30"/>
       <c r="AI235" s="30"/>
       <c r="AJ235" s="30"/>
+      <c r="AK235" s="30"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="AG236" s="19"/>
       <c r="AH236" s="30"/>
       <c r="AI236" s="30"/>
       <c r="AJ236" s="30"/>
+      <c r="AK236" s="30"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="19"/>
-      <c r="B237" s="28"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="19"/>
       <c r="E237" s="19"/>
       <c r="F237" s="19"/>
-      <c r="U237" s="19"/>
-      <c r="AF237" s="19"/>
+      <c r="L237" s="19"/>
       <c r="AG237" s="19"/>
-      <c r="AH237" s="33"/>
+      <c r="AH237" s="30"/>
       <c r="AI237" s="30"/>
       <c r="AJ237" s="30"/>
+      <c r="AK237" s="30"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="19"/>
@@ -5829,6 +6101,7 @@
       <c r="AH238" s="33"/>
       <c r="AI238" s="30"/>
       <c r="AJ238" s="30"/>
+      <c r="AK238" s="30"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="19"/>
@@ -5842,6 +6115,7 @@
       <c r="AH239" s="33"/>
       <c r="AI239" s="30"/>
       <c r="AJ239" s="30"/>
+      <c r="AK239" s="30"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="19"/>
@@ -5855,6 +6129,7 @@
       <c r="AH240" s="33"/>
       <c r="AI240" s="30"/>
       <c r="AJ240" s="30"/>
+      <c r="AK240" s="30"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="19"/>
@@ -5868,6 +6143,7 @@
       <c r="AH241" s="33"/>
       <c r="AI241" s="30"/>
       <c r="AJ241" s="30"/>
+      <c r="AK241" s="30"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="19"/>
@@ -5881,6 +6157,7 @@
       <c r="AH242" s="33"/>
       <c r="AI242" s="30"/>
       <c r="AJ242" s="30"/>
+      <c r="AK242" s="30"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="19"/>
@@ -5894,6 +6171,7 @@
       <c r="AH243" s="33"/>
       <c r="AI243" s="30"/>
       <c r="AJ243" s="30"/>
+      <c r="AK243" s="30"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="19"/>
@@ -5907,6 +6185,7 @@
       <c r="AH244" s="33"/>
       <c r="AI244" s="30"/>
       <c r="AJ244" s="30"/>
+      <c r="AK244" s="30"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="19"/>
@@ -5920,6 +6199,7 @@
       <c r="AH245" s="33"/>
       <c r="AI245" s="30"/>
       <c r="AJ245" s="30"/>
+      <c r="AK245" s="30"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="19"/>
@@ -5933,6 +6213,7 @@
       <c r="AH246" s="33"/>
       <c r="AI246" s="30"/>
       <c r="AJ246" s="30"/>
+      <c r="AK246" s="30"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="19"/>
@@ -5946,6 +6227,7 @@
       <c r="AH247" s="33"/>
       <c r="AI247" s="30"/>
       <c r="AJ247" s="30"/>
+      <c r="AK247" s="30"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="19"/>
@@ -5959,6 +6241,7 @@
       <c r="AH248" s="33"/>
       <c r="AI248" s="30"/>
       <c r="AJ248" s="30"/>
+      <c r="AK248" s="30"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="19"/>
@@ -5972,6 +6255,7 @@
       <c r="AH249" s="33"/>
       <c r="AI249" s="30"/>
       <c r="AJ249" s="30"/>
+      <c r="AK249" s="30"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="19"/>
@@ -5985,6 +6269,7 @@
       <c r="AH250" s="33"/>
       <c r="AI250" s="30"/>
       <c r="AJ250" s="30"/>
+      <c r="AK250" s="30"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="19"/>
@@ -5998,6 +6283,7 @@
       <c r="AH251" s="33"/>
       <c r="AI251" s="30"/>
       <c r="AJ251" s="30"/>
+      <c r="AK251" s="30"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="19"/>
@@ -6011,6 +6297,7 @@
       <c r="AH252" s="33"/>
       <c r="AI252" s="30"/>
       <c r="AJ252" s="30"/>
+      <c r="AK252" s="30"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="19"/>
@@ -6024,6 +6311,7 @@
       <c r="AH253" s="33"/>
       <c r="AI253" s="30"/>
       <c r="AJ253" s="30"/>
+      <c r="AK253" s="30"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="19"/>
@@ -6037,6 +6325,7 @@
       <c r="AH254" s="33"/>
       <c r="AI254" s="30"/>
       <c r="AJ254" s="30"/>
+      <c r="AK254" s="30"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="19"/>
@@ -6050,6 +6339,7 @@
       <c r="AH255" s="33"/>
       <c r="AI255" s="30"/>
       <c r="AJ255" s="30"/>
+      <c r="AK255" s="30"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="19"/>
@@ -6063,6 +6353,7 @@
       <c r="AH256" s="33"/>
       <c r="AI256" s="30"/>
       <c r="AJ256" s="30"/>
+      <c r="AK256" s="30"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="19"/>
@@ -6076,6 +6367,7 @@
       <c r="AH257" s="33"/>
       <c r="AI257" s="30"/>
       <c r="AJ257" s="30"/>
+      <c r="AK257" s="30"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="19"/>
@@ -6089,6 +6381,7 @@
       <c r="AH258" s="33"/>
       <c r="AI258" s="30"/>
       <c r="AJ258" s="30"/>
+      <c r="AK258" s="30"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="19"/>
@@ -6102,6 +6395,7 @@
       <c r="AH259" s="33"/>
       <c r="AI259" s="30"/>
       <c r="AJ259" s="30"/>
+      <c r="AK259" s="30"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="19"/>
@@ -6115,6 +6409,7 @@
       <c r="AH260" s="33"/>
       <c r="AI260" s="30"/>
       <c r="AJ260" s="30"/>
+      <c r="AK260" s="30"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="19"/>
@@ -6128,6 +6423,7 @@
       <c r="AH261" s="33"/>
       <c r="AI261" s="30"/>
       <c r="AJ261" s="30"/>
+      <c r="AK261" s="30"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="19"/>
@@ -6141,6 +6437,7 @@
       <c r="AH262" s="33"/>
       <c r="AI262" s="30"/>
       <c r="AJ262" s="30"/>
+      <c r="AK262" s="30"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="19"/>
@@ -6154,6 +6451,7 @@
       <c r="AH263" s="33"/>
       <c r="AI263" s="30"/>
       <c r="AJ263" s="30"/>
+      <c r="AK263" s="30"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="19"/>
@@ -6167,6 +6465,7 @@
       <c r="AH264" s="33"/>
       <c r="AI264" s="30"/>
       <c r="AJ264" s="30"/>
+      <c r="AK264" s="30"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="19"/>
@@ -6180,6 +6479,7 @@
       <c r="AH265" s="33"/>
       <c r="AI265" s="30"/>
       <c r="AJ265" s="30"/>
+      <c r="AK265" s="30"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="19"/>
@@ -6187,12 +6487,13 @@
       <c r="C266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" s="19"/>
-      <c r="U266" s="28"/>
+      <c r="U266" s="19"/>
       <c r="AF266" s="19"/>
       <c r="AG266" s="19"/>
       <c r="AH266" s="33"/>
       <c r="AI266" s="30"/>
       <c r="AJ266" s="30"/>
+      <c r="AK266" s="30"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="19"/>
@@ -6200,12 +6501,13 @@
       <c r="C267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" s="19"/>
-      <c r="U267" s="19"/>
+      <c r="U267" s="28"/>
       <c r="AF267" s="19"/>
       <c r="AG267" s="19"/>
       <c r="AH267" s="33"/>
       <c r="AI267" s="30"/>
       <c r="AJ267" s="30"/>
+      <c r="AK267" s="30"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="19"/>
@@ -6219,6 +6521,7 @@
       <c r="AH268" s="33"/>
       <c r="AI268" s="30"/>
       <c r="AJ268" s="30"/>
+      <c r="AK268" s="30"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="19"/>
@@ -6232,6 +6535,7 @@
       <c r="AH269" s="33"/>
       <c r="AI269" s="30"/>
       <c r="AJ269" s="30"/>
+      <c r="AK269" s="30"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="19"/>
@@ -6245,6 +6549,7 @@
       <c r="AH270" s="33"/>
       <c r="AI270" s="30"/>
       <c r="AJ270" s="30"/>
+      <c r="AK270" s="30"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="19"/>
@@ -6258,6 +6563,7 @@
       <c r="AH271" s="33"/>
       <c r="AI271" s="30"/>
       <c r="AJ271" s="30"/>
+      <c r="AK271" s="30"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="19"/>
@@ -6271,6 +6577,7 @@
       <c r="AH272" s="33"/>
       <c r="AI272" s="30"/>
       <c r="AJ272" s="30"/>
+      <c r="AK272" s="30"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="19"/>
@@ -6284,6 +6591,7 @@
       <c r="AH273" s="33"/>
       <c r="AI273" s="30"/>
       <c r="AJ273" s="30"/>
+      <c r="AK273" s="30"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="19"/>
@@ -6297,6 +6605,7 @@
       <c r="AH274" s="33"/>
       <c r="AI274" s="30"/>
       <c r="AJ274" s="30"/>
+      <c r="AK274" s="30"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="19"/>
@@ -6310,57 +6619,60 @@
       <c r="AH275" s="33"/>
       <c r="AI275" s="30"/>
       <c r="AJ275" s="30"/>
+      <c r="AK275" s="30"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="34"/>
-      <c r="B276" s="34"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="28"/>
       <c r="C276" s="19"/>
-      <c r="D276" s="20"/>
-      <c r="E276" s="30"/>
-      <c r="F276" s="30"/>
-      <c r="G276" s="20"/>
-      <c r="H276" s="20"/>
-      <c r="I276" s="20"/>
-      <c r="J276" s="20"/>
-      <c r="K276" s="20"/>
-      <c r="L276" s="20"/>
-      <c r="M276" s="20"/>
-      <c r="N276" s="20"/>
-      <c r="O276" s="20"/>
-      <c r="P276" s="20"/>
-      <c r="Q276" s="20"/>
-      <c r="R276" s="20"/>
-      <c r="S276" s="20"/>
-      <c r="T276" s="20"/>
-      <c r="U276" s="30"/>
-      <c r="V276" s="20"/>
-      <c r="W276" s="20"/>
-      <c r="X276" s="20"/>
-      <c r="Y276" s="20"/>
-      <c r="Z276" s="20"/>
-      <c r="AA276" s="20"/>
-      <c r="AB276" s="20"/>
-      <c r="AC276" s="20"/>
-      <c r="AD276" s="20"/>
-      <c r="AE276" s="20"/>
-      <c r="AF276" s="30"/>
-      <c r="AG276" s="30"/>
-      <c r="AH276" s="30"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="19"/>
+      <c r="U276" s="19"/>
+      <c r="AF276" s="19"/>
+      <c r="AG276" s="19"/>
+      <c r="AH276" s="33"/>
       <c r="AI276" s="30"/>
       <c r="AJ276" s="30"/>
+      <c r="AK276" s="30"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="19"/>
-      <c r="B277" s="28"/>
+      <c r="A277" s="34"/>
+      <c r="B277" s="34"/>
       <c r="C277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="U277" s="28"/>
-      <c r="AF277" s="19"/>
-      <c r="AG277" s="19"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="20"/>
+      <c r="K277" s="20"/>
+      <c r="L277" s="20"/>
+      <c r="M277" s="20"/>
+      <c r="N277" s="20"/>
+      <c r="O277" s="20"/>
+      <c r="P277" s="20"/>
+      <c r="Q277" s="20"/>
+      <c r="R277" s="20"/>
+      <c r="S277" s="20"/>
+      <c r="T277" s="20"/>
+      <c r="U277" s="30"/>
+      <c r="V277" s="20"/>
+      <c r="W277" s="20"/>
+      <c r="X277" s="20"/>
+      <c r="Y277" s="20"/>
+      <c r="Z277" s="20"/>
+      <c r="AA277" s="20"/>
+      <c r="AB277" s="20"/>
+      <c r="AC277" s="20"/>
+      <c r="AD277" s="20"/>
+      <c r="AE277" s="20"/>
+      <c r="AF277" s="30"/>
+      <c r="AG277" s="30"/>
       <c r="AH277" s="30"/>
       <c r="AI277" s="30"/>
       <c r="AJ277" s="30"/>
+      <c r="AK277" s="30"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="19"/>
@@ -6374,6 +6686,7 @@
       <c r="AH278" s="30"/>
       <c r="AI278" s="30"/>
       <c r="AJ278" s="30"/>
+      <c r="AK278" s="30"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="19"/>
@@ -6384,9 +6697,10 @@
       <c r="U279" s="28"/>
       <c r="AF279" s="19"/>
       <c r="AG279" s="19"/>
-      <c r="AH279" s="33"/>
+      <c r="AH279" s="30"/>
       <c r="AI279" s="30"/>
       <c r="AJ279" s="30"/>
+      <c r="AK279" s="30"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="19"/>
@@ -6397,9 +6711,10 @@
       <c r="U280" s="28"/>
       <c r="AF280" s="19"/>
       <c r="AG280" s="19"/>
-      <c r="AH280" s="30"/>
+      <c r="AH280" s="33"/>
       <c r="AI280" s="30"/>
       <c r="AJ280" s="30"/>
+      <c r="AK280" s="30"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="19"/>
@@ -6413,44 +6728,21 @@
       <c r="AH281" s="30"/>
       <c r="AI281" s="30"/>
       <c r="AJ281" s="30"/>
+      <c r="AK281" s="30"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="34"/>
-      <c r="B282" s="34"/>
-      <c r="C282" s="30"/>
-      <c r="D282" s="20"/>
-      <c r="E282" s="30"/>
-      <c r="F282" s="30"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="20"/>
-      <c r="I282" s="20"/>
-      <c r="J282" s="20"/>
-      <c r="K282" s="20"/>
-      <c r="L282" s="20"/>
-      <c r="M282" s="20"/>
-      <c r="N282" s="20"/>
-      <c r="O282" s="20"/>
-      <c r="P282" s="20"/>
-      <c r="Q282" s="20"/>
-      <c r="R282" s="20"/>
-      <c r="S282" s="20"/>
-      <c r="T282" s="20"/>
-      <c r="U282" s="20"/>
-      <c r="V282" s="20"/>
-      <c r="W282" s="20"/>
-      <c r="X282" s="20"/>
-      <c r="Y282" s="20"/>
-      <c r="Z282" s="20"/>
-      <c r="AA282" s="20"/>
-      <c r="AB282" s="20"/>
-      <c r="AC282" s="20"/>
-      <c r="AD282" s="20"/>
-      <c r="AE282" s="20"/>
-      <c r="AF282" s="30"/>
-      <c r="AG282" s="30"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="19"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="19"/>
+      <c r="U282" s="28"/>
+      <c r="AF282" s="19"/>
+      <c r="AG282" s="19"/>
       <c r="AH282" s="30"/>
       <c r="AI282" s="30"/>
       <c r="AJ282" s="30"/>
+      <c r="AK282" s="30"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="34"/>
@@ -6489,6 +6781,7 @@
       <c r="AH283" s="30"/>
       <c r="AI283" s="30"/>
       <c r="AJ283" s="30"/>
+      <c r="AK283" s="30"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="34"/>
@@ -6527,6 +6820,7 @@
       <c r="AH284" s="30"/>
       <c r="AI284" s="30"/>
       <c r="AJ284" s="30"/>
+      <c r="AK284" s="30"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="34"/>
@@ -6565,6 +6859,7 @@
       <c r="AH285" s="30"/>
       <c r="AI285" s="30"/>
       <c r="AJ285" s="30"/>
+      <c r="AK285" s="30"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="34"/>
@@ -6603,6 +6898,7 @@
       <c r="AH286" s="30"/>
       <c r="AI286" s="30"/>
       <c r="AJ286" s="30"/>
+      <c r="AK286" s="30"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="34"/>
@@ -6641,6 +6937,7 @@
       <c r="AH287" s="30"/>
       <c r="AI287" s="30"/>
       <c r="AJ287" s="30"/>
+      <c r="AK287" s="30"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="34"/>
@@ -6679,6 +6976,7 @@
       <c r="AH288" s="30"/>
       <c r="AI288" s="30"/>
       <c r="AJ288" s="30"/>
+      <c r="AK288" s="30"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="34"/>
@@ -6717,6 +7015,7 @@
       <c r="AH289" s="30"/>
       <c r="AI289" s="30"/>
       <c r="AJ289" s="30"/>
+      <c r="AK289" s="30"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="34"/>
@@ -6755,6 +7054,7 @@
       <c r="AH290" s="30"/>
       <c r="AI290" s="30"/>
       <c r="AJ290" s="30"/>
+      <c r="AK290" s="30"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="34"/>
@@ -6793,6 +7093,7 @@
       <c r="AH291" s="30"/>
       <c r="AI291" s="30"/>
       <c r="AJ291" s="30"/>
+      <c r="AK291" s="30"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="34"/>
@@ -6831,6 +7132,7 @@
       <c r="AH292" s="30"/>
       <c r="AI292" s="30"/>
       <c r="AJ292" s="30"/>
+      <c r="AK292" s="30"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="34"/>
@@ -6869,10 +7171,50 @@
       <c r="AH293" s="30"/>
       <c r="AI293" s="30"/>
       <c r="AJ293" s="30"/>
+      <c r="AK293" s="30"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="A294" s="34"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="30"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="30"/>
+      <c r="F294" s="30"/>
+      <c r="G294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="20"/>
+      <c r="K294" s="20"/>
+      <c r="L294" s="20"/>
+      <c r="M294" s="20"/>
+      <c r="N294" s="20"/>
+      <c r="O294" s="20"/>
+      <c r="P294" s="20"/>
+      <c r="Q294" s="20"/>
+      <c r="R294" s="20"/>
+      <c r="S294" s="20"/>
+      <c r="T294" s="20"/>
+      <c r="U294" s="20"/>
+      <c r="V294" s="20"/>
+      <c r="W294" s="20"/>
+      <c r="X294" s="20"/>
+      <c r="Y294" s="20"/>
+      <c r="Z294" s="20"/>
+      <c r="AA294" s="20"/>
+      <c r="AB294" s="20"/>
+      <c r="AC294" s="20"/>
+      <c r="AD294" s="20"/>
+      <c r="AE294" s="20"/>
+      <c r="AF294" s="30"/>
+      <c r="AG294" s="30"/>
+      <c r="AH294" s="30"/>
+      <c r="AI294" s="30"/>
+      <c r="AJ294" s="30"/>
+      <c r="AK294" s="30"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J293">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J294">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6899,7 +7241,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -6941,13 +7283,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
@@ -6971,13 +7313,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -7025,13 +7367,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -7055,13 +7397,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -7085,13 +7427,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -7115,13 +7457,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -7169,13 +7511,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -7199,13 +7541,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -7253,13 +7595,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -7283,13 +7625,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
@@ -7313,13 +7655,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -7367,13 +7709,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -7397,13 +7739,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -7451,13 +7793,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -7481,13 +7823,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -7511,13 +7853,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -7541,13 +7883,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -7571,13 +7913,13 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
@@ -7623,13 +7965,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -7653,13 +7995,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -7683,13 +8025,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
@@ -7713,13 +8055,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -7743,13 +8085,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -7773,13 +8115,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
@@ -7803,13 +8145,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
@@ -7833,13 +8175,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>117</v>
-      </c>
       <c r="C33" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
@@ -7887,70 +8229,70 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B39" s="28">
         <v>3.0</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B40" s="28">
         <v>7.0</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B41" s="28">
         <v>13.0</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B42" s="28">
         <v>14.0</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -7958,124 +8300,124 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -8145,25 +8487,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
@@ -8187,24 +8529,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-11_16-19</v>
+        <v>2021-01-12_15-39</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8530,7 +8872,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
@@ -8573,13 +8915,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
@@ -8604,13 +8946,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -8660,13 +9002,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -8691,13 +9033,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -8722,13 +9064,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -8753,13 +9095,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -8784,13 +9126,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -8840,13 +9182,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -8871,13 +9213,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -8902,13 +9244,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -8933,13 +9275,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
@@ -8964,13 +9306,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -8995,13 +9337,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -9051,13 +9393,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -9082,13 +9424,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -9113,13 +9455,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -9144,13 +9486,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -9175,13 +9517,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>193</v>
-      </c>
       <c r="C22" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -9206,13 +9548,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -9262,13 +9604,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
@@ -9293,13 +9635,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -9324,13 +9666,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -9355,13 +9697,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
@@ -9386,13 +9728,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -9442,13 +9784,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
@@ -9473,13 +9815,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
@@ -9529,121 +9871,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -9654,26 +9996,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -9684,13 +10026,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
@@ -9715,13 +10057,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -9747,226 +10089,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-12_15-39</v>
+        <v>2021-01-15_12-49</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>171</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-15_12-49</v>
+        <v>2021-01-15_15-09</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>171</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-15_15-09</v>
+        <v>2021-01-19_14-32</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>171</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-19_14-32</v>
+        <v>2021-01-20_16-29</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>171</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-26_15-27</v>
+        <v>2021-01-28_15-45</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-28_15-45</v>
+        <v>2021-01-29_15-47</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-01-29_15-47</v>
+        <v>2021-02-02_14-49</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-02_14-49</v>
+        <v>2021-02-04_14-52</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_14-52</v>
+        <v>2021-02-04_15-05</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>

--- a/config/default/forms/app/immunization_growth_follow_up.xlsx
+++ b/config/default/forms/app/immunization_growth_follow_up.xlsx
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C2" s="62" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_15-05</v>
+        <v>2021-02-05_13-53</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>183</v>
